--- a/03_Outputs/all/01_TablasDescriptivas/idx12_salud_vr.xlsx
+++ b/03_Outputs/all/01_TablasDescriptivas/idx12_salud_vr.xlsx
@@ -404,7 +404,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.091492842546407</v>
+        <v>1.091492842546406</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -422,7 +422,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.8669363135508961</v>
+        <v>0.8669363135508958</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.4475374866234379</v>
+        <v>0.4475374866234385</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>2.685526199825667</v>
+        <v>2.685526199825666</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>3.552462513376563</v>
+        <v>3.552462513376561</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>4.000000000000001</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>39.8508339319815</v>
+        <v>39.85083393198149</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>27.28732106366016</v>
+        <v>27.28732106366015</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>11.18843716558595</v>
+        <v>11.18843716558596</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>39.8508339319815</v>
+        <v>39.85083393198149</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>67.13815499564166</v>
+        <v>67.13815499564164</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>88.81156283441405</v>
+        <v>88.81156283441403</v>
       </c>
       <c r="C16">
         <v>3</v>
